--- a/DemoDotnet/Uploads/Excels/Excel Demo.xlsx
+++ b/DemoDotnet/Uploads/Excels/Excel Demo.xlsx
@@ -1,31 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thinkpad\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4E012A5-D53F-41A9-B8CC-EC79DC3BE832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988D1821-2B63-404C-A787-81AF19635D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{11C0ADD1-3AD4-49CE-9BE9-09398BEFC1A3}"/>
+    <workbookView xWindow="1668" yWindow="2196" windowWidth="9744" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -37,7 +30,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>ReleaseDate</t>
+    <t>Release Date</t>
   </si>
   <si>
     <t>Gener</t>
@@ -46,13 +39,13 @@
     <t>Price</t>
   </si>
   <si>
-    <t>Rating</t>
+    <t>rating</t>
   </si>
   <si>
     <t>Oidoioi</t>
   </si>
   <si>
-    <t>Tốt</t>
+    <t>tốt</t>
   </si>
 </sst>
 </file>
@@ -125,7 +118,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -137,7 +130,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -184,23 +177,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -236,23 +212,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -404,19 +363,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B71A1D-FE46-4CCF-AC17-1F2ABB21D35B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
     <col min="2" max="2" width="12.88671875" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" customWidth="1"/>
-    <col min="4" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -441,7 +397,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>44901</v>
+        <v>44536</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -455,6 +411,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>